--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'Punta Hermosa', 'Pucusana', 'Villa María del Triunfo', 'Barranco', 'San Borja', 'Callao', 'Breña', 'La Victoria', 'Cieneguilla', 'Punta Negra']</t>
+          <t>['Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Chorrillos', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150.9436704468002</v>
+        <v>209.2762819934201</v>
       </c>
     </row>
     <row r="3">
@@ -480,11 +480,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['La Victoria', 'Callao', 'Breña', 'San Borja', 'Villa María del Triunfo', 'Barranco', 'Punta Negra', 'Punta Hermosa', 'Cieneguilla', 'Pucusana', 'La Victoria']</t>
+          <t>['San Borja', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'La Perla', 'Bellavista', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'San Borja']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>204.8327062244627</v>
+        <v>196.3945713096583</v>
       </c>
     </row>
     <row r="4">
@@ -496,11 +496,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Pucusana', 'Punta Negra', 'Punta Hermosa', 'Villa María del Triunfo', 'Barranco', 'San Borja', 'Breña', 'La Victoria', 'Callao', 'Cieneguilla', 'Pucusana']</t>
+          <t>['Ventanilla', 'Magdalena del Mar', 'La Perla', 'San Miguel', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Chorrillos', 'Bellavista', 'Punta Negra', 'San Bartolo', 'Carabayllo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Ventanilla']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>143.9269040511326</v>
+        <v>308.4134307973715</v>
       </c>
     </row>
     <row r="5">
@@ -512,11 +512,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Villa María del Triunfo', 'Barranco', 'La Victoria', 'Callao', 'San Borja', 'Breña', 'Cieneguilla', 'Punta Negra', 'Pucusana', 'Punta Hermosa', 'Villa María del Triunfo']</t>
+          <t>['Breña', 'Lima', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Ventanilla', 'Carabayllo', 'Breña']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149.6707208013826</v>
+        <v>220.1227064843697</v>
       </c>
     </row>
     <row r="6">
@@ -528,331 +528,1531 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Cieneguilla', 'San Borja', 'Barranco', 'Punta Hermosa', 'Punta Negra', 'Pucusana', 'La Victoria', 'Breña', 'Callao', 'Villa María del Triunfo', 'Cieneguilla']</t>
+          <t>['Carabayllo', 'Ventanilla', 'San Borja', 'Breña', 'Lima', 'San Luis', 'Chorrillos', 'Magdalena del Mar', 'San Miguel', 'Bellavista', 'La Perla', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Carabayllo']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>158.3665606952335</v>
+        <v>229.8571232379051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'Pucusana', 'Punta Negra', 'Villa María del Triunfo', 'Barranco', 'San Borja', 'La Victoria', 'Cieneguilla', 'Breña', 'Callao', 'Punta Hermosa']</t>
+          <t>['Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Chorrillos', 'San Borja', 'Lima', 'Breña', 'Magdalena del Mar', 'La Perla', 'San Miguel', 'Carabayllo', 'Lurigancho (Chosica)', 'San Luis', 'Bellavista', 'Ventanilla', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>152.4967312815504</v>
+        <v>238.9163256748086</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['San Borja', 'La Victoria', 'Breña', 'Callao', 'Barranco', 'Pucusana', 'Punta Hermosa', 'Punta Negra', 'Villa María del Triunfo', 'Cieneguilla', 'San Borja']</t>
+          <t>['Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'San Borja', 'Lima', 'Breña', 'Chorrillos', 'Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'San Luis', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>154.7753261756503</v>
+        <v>266.6438715615479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Barranco', 'Villa María del Triunfo', 'Breña', 'La Victoria', 'San Borja', 'Callao', 'Punta Hermosa', 'Punta Negra', 'Pucusana', 'Cieneguilla', 'Barranco']</t>
+          <t>['Ventanilla', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'San Borja', 'San Miguel', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>166.6306668776534</v>
+        <v>216.4258798795824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'Punta Hermosa', 'Barranco', 'La Victoria', 'San Borja', 'Breña', 'Callao', 'Villa María del Triunfo', 'Cieneguilla', 'Pucusana', 'Punta Negra']</t>
+          <t>['San Miguel', 'Bellavista', 'La Perla', 'Magdalena del Mar', 'San Luis', 'San Borja', 'Breña', 'Lima', 'Carabayllo', 'Ventanilla', 'Chorrillos', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Miguel']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>154.9317278423393</v>
+        <v>223.6243149854209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'La Victoria', 'San Borja', 'Breña', 'Callao', 'Barranco', 'Cieneguilla', 'Punta Hermosa', 'Villa María del Triunfo', 'Pucusana', 'Punta Negra']</t>
+          <t>['La Perla', 'Bellavista', 'Magdalena del Mar', 'San Miguel', 'Chorrillos', 'San Borja', 'Breña', 'Lima', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Ventanilla', 'Carabayllo', 'San Luis', 'Lurigancho (Chosica)', 'La Perla']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>191.3708377886545</v>
+        <v>245.3159759598186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'Pucusana', 'Punta Hermosa', 'Villa María del Triunfo', 'San Borja', 'La Victoria', 'Barranco', 'Breña', 'Callao', 'Cieneguilla', 'Punta Negra']</t>
+          <t>['San Luis', 'Breña', 'Lima', 'San Miguel', 'Bellavista', 'La Perla', 'Magdalena del Mar', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'San Luis']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>150.2823806965343</v>
+        <v>181.3870684219308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'Pucusana', 'Cieneguilla', 'Punta Hermosa', 'Barranco', 'San Borja', 'La Victoria', 'Breña', 'Villa María del Triunfo', 'Callao', 'Punta Negra']</t>
+          <t>['Chorrillos', 'La Perla', 'Bellavista', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'San Borja', 'San Luis', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>206.6050931131875</v>
+        <v>188.7381713381922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Callao', 'Cieneguilla', 'La Victoria', 'Barranco', 'San Borja', 'Breña', 'Villa María del Triunfo', 'Punta Negra', 'Punta Hermosa', 'Pucusana', 'Callao']</t>
+          <t>['Punta Hermosa', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Chorrillos', 'La Perla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Ventanilla', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>183.1687651166885</v>
+        <v>299.880494164394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['Villa María del Triunfo', 'Callao', 'Breña', 'La Victoria', 'Barranco', 'San Borja', 'Punta Hermosa', 'Punta Negra', 'Pucusana', 'Cieneguilla', 'Villa María del Triunfo']</t>
+          <t>['La Perla', 'Magdalena del Mar', 'San Miguel', 'Bellavista', 'Breña', 'Lima', 'San Borja', 'Chorrillos', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'San Luis', 'Ventanilla', 'Carabayllo', 'La Perla']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>153.2372140599125</v>
+        <v>207.6287487355607</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Pucusana', 'Punta Negra', 'Punta Hermosa', 'San Borja', 'La Victoria', 'Breña', 'Callao', 'Barranco', 'Villa María del Triunfo', 'Cieneguilla', 'Pucusana']</t>
+          <t>['San Luis', 'San Borja', 'Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Luis']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>146.0185905046951</v>
+        <v>215.0174869392636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['Barranco', 'La Victoria', 'Breña', 'Callao', 'Villa María del Triunfo', 'San Borja', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pucusana', 'Barranco']</t>
+          <t>['San Borja', 'San Luis', 'Lima', 'Breña', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'San Miguel', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Chorrillos', 'San Borja']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>152.4087947088074</v>
+        <v>222.5935322949191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Barranco', 'La Victoria', 'San Borja', 'Punta Hermosa', 'Callao', 'Breña', 'Punta Negra', 'Pucusana', 'Villa María del Triunfo', 'Cieneguilla', 'Barranco']</t>
+          <t>['San Bartolo', 'Punta Negra', 'Chorrillos', 'San Borja', 'Lima', 'Breña', 'San Miguel', 'Magdalena del Mar', 'Bellavista', 'La Perla', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'San Luis', 'San Bartolo']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>211.2791443489564</v>
+        <v>251.630047147878</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['Callao', 'La Victoria', 'San Borja', 'Barranco', 'Villa María del Triunfo', 'Punta Hermosa', 'Punta Negra', 'Pucusana', 'Cieneguilla', 'Breña', 'Callao']</t>
+          <t>['Punta Hermosa', 'Breña', 'Lima', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'San Luis', 'Ventanilla', 'Carabayllo', 'San Borja', 'Chorrillos', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>138.4029114417986</v>
+        <v>254.1866936026848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['Barranco', 'La Victoria', 'San Borja', 'Breña', 'Callao', 'Villa María del Triunfo', 'Cieneguilla', 'Punta Negra', 'Pucusana', 'Punta Hermosa', 'Barranco']</t>
+          <t>['La Perla', 'Bellavista', 'San Miguel', 'Breña', 'Lima', 'Lurigancho (Chosica)', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Chorrillos', 'San Luis', 'San Borja', 'Magdalena del Mar', 'Ventanilla', 'Carabayllo', 'La Perla']</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>154.4619054206123</v>
+        <v>206.9923470569077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['San Borja', 'La Victoria', 'Breña', 'Callao', 'Barranco', 'Villa María del Triunfo', 'Pucusana', 'Punta Negra', 'Punta Hermosa', 'Cieneguilla', 'San Borja']</t>
+          <t>['San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'San Miguel', 'Breña', 'Lima', 'San Luis', 'Carabayllo', 'Ventanilla', 'Bellavista', 'La Perla', 'Chorrillos', 'San Borja', 'Lurigancho (Chosica)', 'San Bartolo']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>139.2256216759813</v>
+        <v>212.7050542332267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'Punta Negra', 'Pucusana', 'Cieneguilla', 'La Victoria', 'Barranco', 'San Borja', 'Breña', 'Callao', 'Villa María del Triunfo', 'Punta Hermosa']</t>
+          <t>['San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Chorrillos', 'Carabayllo', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Ventanilla', 'San Miguel']</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>150.8179661808723</v>
+        <v>250.5605274971438</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'Punta Hermosa', 'Callao', 'La Victoria', 'Breña', 'Barranco', 'San Borja', 'Villa María del Triunfo', 'Cieneguilla', 'Pucusana', 'Punta Negra']</t>
+          <t>['Punta Hermosa', 'San Borja', 'Lima', 'Breña', 'San Miguel', 'Bellavista', 'La Perla', 'Magdalena del Mar', 'San Luis', 'Chorrillos', 'Carabayllo', 'Ventanilla', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>156.7948796101542</v>
+        <v>268.484865574221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Pucusana', 'Punta Negra', 'Punta Hermosa', 'Villa María del Triunfo', 'La Victoria', 'Breña', 'Callao', 'San Borja', 'Barranco', 'Cieneguilla', 'Pucusana']</t>
+          <t>['La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'San Borja', 'Chorrillos', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'La Perla']</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>146.3763162425558</v>
+        <v>188.518254149427</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
         <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['La Victoria', 'San Borja', 'Barranco', 'Villa María del Triunfo', 'Punta Negra', 'Punta Hermosa', 'Pucusana', 'Callao', 'Breña', 'Cieneguilla', 'La Victoria']</t>
+          <t>['Ventanilla', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Borja', 'San Luis', 'Bellavista', 'Carabayllo', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Ventanilla']</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>164.7060913480899</v>
+        <v>235.5350347428147</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
         <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['Villa María del Triunfo', 'San Borja', 'Barranco', 'La Victoria', 'Breña', 'Callao', 'Punta Hermosa', 'Punta Negra', 'Pucusana', 'Cieneguilla', 'Villa María del Triunfo']</t>
+          <t>['Ventanilla', 'Carabayllo', 'San Luis', 'Breña', 'Lima', 'La Perla', 'Magdalena del Mar', 'San Miguel', 'San Borja', 'Chorrillos', 'Bellavista', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Ventanilla']</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>152.3969535086317</v>
+        <v>219.47103265611</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['Bellavista', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Breña', 'Lima', 'San Borja', 'Carabayllo', 'Ventanilla', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'San Luis', 'Lurigancho (Chosica)', 'Chorrillos', 'Bellavista']</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>246.8342566848628</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'San Borja', 'San Luis', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Breña', 'Lima', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>173.8447332878665</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Carabayllo', 'Lurigancho (Chosica)', 'San Borja', 'Lima', 'Breña', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Miguel', 'San Luis', 'Chorrillos', 'Ventanilla', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>261.0443764936579</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'San Luis', 'Lurigancho (Chosica)', 'Carabayllo', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>227.1721546086913</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['Chorrillos', 'San Borja', 'San Luis', 'Lima', 'Breña', 'La Perla', 'Magdalena del Mar', 'San Miguel', 'Bellavista', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Chorrillos']</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>203.7502995306033</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['Bellavista', 'La Perla', 'Magdalena del Mar', 'Breña', 'Lima', 'San Miguel', 'San Luis', 'Chorrillos', 'San Borja', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Ventanilla', 'Carabayllo', 'Punta Hermosa', 'Bellavista']</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>286.9411354516855</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['San Bartolo', 'Punta Negra', 'Ventanilla', 'Carabayllo', 'Lima', 'Breña', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'San Miguel', 'Lurigancho (Chosica)', 'Chorrillos', 'San Luis', 'San Borja', 'Punta Hermosa', 'San Bartolo']</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>234.6251164897139</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['Chorrillos', 'San Borja', 'San Luis', 'Magdalena del Mar', 'La Perla', 'San Miguel', 'Bellavista', 'Breña', 'Lima', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Hermosa', 'Chorrillos']</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>247.0453145583128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Carabayllo', 'Lima', 'Breña', 'San Borja', 'San Luis', 'La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Chorrillos', 'Ventanilla', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>258.4596999005285</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['Bellavista', 'La Perla', 'Magdalena del Mar', 'San Miguel', 'Breña', 'Lima', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Bellavista']</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>220.7237376315957</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Luis', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'Carabayllo', 'Lurigancho (Chosica)', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>233.5829256623685</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Borja', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>197.028899900737</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Miguel', 'Breña', 'Bellavista', 'La Perla', 'San Luis', 'San Borja', 'Chorrillos', 'Lima', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>211.0755752875214</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['San Miguel', 'Lima', 'Breña', 'San Luis', 'Chorrillos', 'San Borja', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Miguel']</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>193.7270183780343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['San Borja', 'San Luis', 'Bellavista', 'La Perla', 'Chorrillos', 'Lima', 'Breña', 'San Miguel', 'Magdalena del Mar', 'Carabayllo', 'Ventanilla', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Lurigancho (Chosica)', 'San Borja']</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>234.947147688551</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'San Bartolo', 'Punta Negra', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>244.0203751078195</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'Carabayllo', 'Ventanilla', 'Bellavista', 'La Perla', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>221.1791934556213</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Luis', 'San Borja', 'Chorrillos', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Lurigancho (Chosica)', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Carabayllo', 'Ventanilla', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>228.6304200882042</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Miguel', 'La Perla', 'Bellavista', 'Chorrillos', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Borja', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>212.7638535397664</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['Chorrillos', 'Carabayllo', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Luis', 'San Borja', 'Ventanilla', 'Lurigancho (Chosica)', 'Chorrillos']</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>271.0442169171919</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['Carabayllo', 'Lima', 'Breña', 'Ventanilla', 'Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>203.1299394598942</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['Ventanilla', 'San Luis', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Carabayllo', 'Lima', 'Breña', 'Chorrillos', 'Lurigancho (Chosica)', 'Ventanilla']</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>260.1263694641743</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['Ventanilla', 'Magdalena del Mar', 'San Miguel', 'Lima', 'Breña', 'La Perla', 'Bellavista', 'San Luis', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla']</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>183.5621497667582</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'San Luis', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Ventanilla', 'La Perla', 'Bellavista', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>249.6598583103062</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'San Bartolo', 'La Perla', 'Bellavista', 'San Miguel', 'San Borja', 'Chorrillos', 'San Luis', 'Breña', 'Lima', 'Punta Hermosa', 'Magdalena del Mar', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>260.8005527149541</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>187.0756187025729</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['Carabayllo', 'Bellavista', 'La Perla', 'San Miguel', 'Lima', 'Breña', 'San Luis', 'San Borja', 'Chorrillos', 'Ventanilla', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>254.2042523814878</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['San Borja', 'Breña', 'Lima', 'San Luis', 'Chorrillos', 'La Perla', 'Bellavista', 'Punta Hermosa', 'San Miguel', 'Magdalena del Mar', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'San Borja']</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>278.3027305357011</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Borja', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Chorrillos', 'San Luis', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)']</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>195.5750141323331</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Breña', 'Lima', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Chorrillos', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Bartolo']</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>213.6254566044911</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['Chorrillos', 'Carabayllo', 'Ventanilla', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Chorrillos']</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>221.6352833524403</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6</v>
+      </c>
+      <c r="B58" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lima', 'Breña', 'Chorrillos', 'San Borja', 'San Luis', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Bellavista']</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>228.1214696995576</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'La Perla']</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>213.1021321977686</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['Chorrillos', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Miguel', 'Breña', 'Lima', 'San Borja', 'San Luis', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Chorrillos']</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>216.9695248587699</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6</v>
+      </c>
+      <c r="B61" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Chorrillos', 'San Borja', 'Lima', 'Breña', 'San Luis', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>199.9598794541276</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'San Luis', 'San Borja', 'La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Chorrillos', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>228.8084150494998</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Lima', 'Breña', 'Punta Negra', 'San Bartolo', 'San Borja', 'Magdalena del Mar', 'Bellavista', 'La Perla', 'San Miguel', 'Chorrillos', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>267.0397078554639</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['San Borja', 'Chorrillos', 'Breña', 'Lima', 'San Luis', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Carabayllo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'San Borja']</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>251.9096976775929</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['San Miguel', 'Chorrillos', 'San Borja', 'San Luis', 'Bellavista', 'La Perla', 'Lima', 'Breña', 'Magdalena del Mar', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Miguel']</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>237.2902358961352</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Ventanilla', 'Lurigancho (Chosica)', 'Carabayllo', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>220.2865655424254</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Borja', 'Chorrillos', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Lurigancho (Chosica)', 'San Luis', 'Ventanilla', 'Carabayllo', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>211.2797897661106</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>['San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Chorrillos', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Bartolo']</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>205.2383590314147</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>['Carabayllo', 'Ventanilla', 'Lima', 'Breña', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>213.6954730067758</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Luis', 'Chorrillos', 'San Borja', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'La Perla', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Bartolo']</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>211.7089783490311</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" t="n">
+        <v>10</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>['Ventanilla', 'Carabayllo', 'Bellavista', 'La Perla', 'Magdalena del Mar', 'San Miguel', 'Lima', 'Breña', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Ventanilla']</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>192.0280265350339</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Carabayllo', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>199.0951982555582</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>8</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Chorrillos', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>202.035168461747</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>8</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'Chorrillos', 'San Borja', 'San Luis', 'Magdalena del Mar', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>203.2941507400135</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>8</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>['Ventanilla', 'Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla']</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>179.8774895162566</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Bellavista', 'La Perla', 'San Borja', 'San Luis', 'Lima', 'Breña', 'San Miguel', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra', 'Punta Hermosa', 'Chorrillos', 'San Bartolo', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>243.549886050681</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>8</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>['Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Lima', 'Breña', 'San Luis', 'San Borja', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Chorrillos']</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>203.7958046452678</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>8</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>['Ventanilla', 'Carabayllo', 'Breña', 'Lima', 'San Borja', 'San Luis', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Chorrillos', 'Lurigancho (Chosica)', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Ventanilla']</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>225.1234928395554</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>['Carabayllo', 'Ventanilla', 'San Luis', 'Lima', 'Breña', 'San Miguel', 'Magdalena del Mar', 'San Borja', 'Chorrillos', 'La Perla', 'Bellavista', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>215.2063200596714</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>['Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Luis', 'Breña', 'Lima', 'Chorrillos', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)']</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>254.5613333227195</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>8</v>
+      </c>
+      <c r="B81" t="n">
+        <v>10</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>['San Luis', 'San Borja', 'Chorrillos', 'Bellavista', 'La Perla', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>205.0658563245609</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>221.8118310744776</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>9</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>203.4852479268204</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>9</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Lima', 'Breña', 'San Luis', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>176.5230439658811</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>9</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>['Carabayllo', 'Lurigancho (Chosica)', 'Ventanilla', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Luis', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Carabayllo']</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>217.318561321564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'San Borja', 'Chorrillos', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>217.0639959709504</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>['La Perla', 'Bellavista', 'Magdalena del Mar', 'Breña', 'Lima', 'San Miguel', 'Carabayllo', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'San Luis', 'Ventanilla', 'La Perla']</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>236.6418472686894</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>['La Perla', 'Bellavista', 'Lima', 'Breña', 'San Miguel', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar', 'La Perla']</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>186.5655490988827</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9</v>
+      </c>
+      <c r="B89" t="n">
+        <v>8</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'San Bartolo', 'Punta Negra', 'San Borja', 'San Luis', 'Chorrillos', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Miguel', 'Breña', 'Lima', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>212.1545980591475</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Luis', 'San Borja', 'Chorrillos', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>177.7349586213794</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>9</v>
+      </c>
+      <c r="B91" t="n">
+        <v>10</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>['Chorrillos', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Breña', 'Lima', 'San Luis', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Chorrillos']</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>218.7117442370761</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>['San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Chorrillos', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'San Miguel']</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>215.5619090926166</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>['Carabayllo', 'Ventanilla', 'Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>179.8774895162566</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Borja', 'San Luis', 'Breña', 'Lima', 'San Miguel', 'La Perla', 'Bellavista', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>204.2205206709813</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'San Luis', 'San Borja', 'Chorrillos', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>198.8425358046456</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Carabayllo', 'Ventanilla', 'Chorrillos', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>221.0912881950595</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>['Carabayllo', 'Ventanilla', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'Chorrillos', 'Lima', 'Breña', 'San Luis', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Carabayllo']</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>220.9478065562231</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>['San Luis', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Lima', 'Breña', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>176.5230439658811</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>['Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'Chorrillos', 'San Borja', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Bellavista']</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>209.7577569574946</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10</v>
+      </c>
+      <c r="B100" t="n">
+        <v>9</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>['Ventanilla', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Lima', 'Breña', 'San Borja', 'San Luis', 'Lurigancho (Chosica)', 'Carabayllo', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Ventanilla']</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>238.2991508747394</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10</v>
+      </c>
+      <c r="B101" t="n">
+        <v>10</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'San Luis', 'San Borja', 'Ventanilla', 'Carabayllo', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>202.3635489041907</v>
       </c>
     </row>
   </sheetData>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Chorrillos', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Punta Hermosa']</t>
+          <t>['Pueblo Libre', 'Lima', 'Breña', 'San Isidro', 'San Luis', 'Magdalena del Mar', 'Lince', 'Cieneguilla', 'Punta Hermosa', 'Pachacámac', 'Los Olivos', 'Punta Negra', 'Pueblo Libre']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>209.2762819934201</v>
+        <v>207.2143789307899</v>
       </c>
     </row>
     <row r="3">
@@ -480,11 +480,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['San Borja', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'La Perla', 'Bellavista', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'San Borja']</t>
+          <t>['San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Luis', 'Breña', 'Lima', 'Punta Negra', 'Punta Hermosa', 'Cieneguilla', 'Los Olivos', 'Pachacámac', 'San Isidro']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>196.3945713096583</v>
+        <v>169.8812089681221</v>
       </c>
     </row>
     <row r="4">
@@ -496,11 +496,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'Magdalena del Mar', 'La Perla', 'San Miguel', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Chorrillos', 'Bellavista', 'Punta Negra', 'San Bartolo', 'Carabayllo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Ventanilla']</t>
+          <t>['Lince', 'San Isidro', 'San Luis', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Lince']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>308.4134307973715</v>
+        <v>126.7919719597182</v>
       </c>
     </row>
     <row r="5">
@@ -512,11 +512,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Breña', 'Lima', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Ventanilla', 'Carabayllo', 'Breña']</t>
+          <t>['San Luis', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Pachacámac', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'San Luis']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>220.1227064843697</v>
+        <v>153.4726980035608</v>
       </c>
     </row>
     <row r="6">
@@ -528,11 +528,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Carabayllo', 'Ventanilla', 'San Borja', 'Breña', 'Lima', 'San Luis', 'Chorrillos', 'Magdalena del Mar', 'San Miguel', 'Bellavista', 'La Perla', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Carabayllo']</t>
+          <t>['Magdalena del Mar', 'Lima', 'Breña', 'Pueblo Libre', 'San Isidro', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Lince', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>229.8571232379051</v>
+        <v>134.5735266160265</v>
       </c>
     </row>
     <row r="7">
@@ -544,11 +544,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Chorrillos', 'San Borja', 'Lima', 'Breña', 'Magdalena del Mar', 'La Perla', 'San Miguel', 'Carabayllo', 'Lurigancho (Chosica)', 'San Luis', 'Bellavista', 'Ventanilla', 'Punta Hermosa']</t>
+          <t>['San Luis', 'Lima', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Los Olivos', 'Punta Hermosa', 'Pachacámac', 'Punta Negra', 'Cieneguilla', 'San Luis']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>238.9163256748086</v>
+        <v>156.5405902620459</v>
       </c>
     </row>
     <row r="8">
@@ -560,11 +560,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'San Borja', 'Lima', 'Breña', 'Chorrillos', 'Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'San Luis', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)']</t>
+          <t>['Lima', 'Breña', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Lince', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Lima']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>266.6438715615479</v>
+        <v>134.2366441683772</v>
       </c>
     </row>
     <row r="9">
@@ -576,11 +576,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'San Borja', 'San Miguel', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla']</t>
+          <t>['Punta Hermosa', 'Punta Negra', 'San Luis', 'Lince', 'San Isidro', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>216.4258798795824</v>
+        <v>152.1390307092224</v>
       </c>
     </row>
     <row r="10">
@@ -592,11 +592,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['San Miguel', 'Bellavista', 'La Perla', 'Magdalena del Mar', 'San Luis', 'San Borja', 'Breña', 'Lima', 'Carabayllo', 'Ventanilla', 'Chorrillos', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Miguel']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'Cieneguilla', 'Lince', 'San Isidro', 'San Luis', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Los Olivos', 'Pachacámac', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>223.6243149854209</v>
+        <v>133.8748532529126</v>
       </c>
     </row>
     <row r="11">
@@ -608,1451 +608,3851 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['La Perla', 'Bellavista', 'Magdalena del Mar', 'San Miguel', 'Chorrillos', 'San Borja', 'Breña', 'Lima', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Ventanilla', 'Carabayllo', 'San Luis', 'Lurigancho (Chosica)', 'La Perla']</t>
+          <t>['Breña', 'Lima', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'San Isidro', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Breña']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>245.3159759598186</v>
+        <v>135.8278080602563</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['San Luis', 'Breña', 'Lima', 'San Miguel', 'Bellavista', 'La Perla', 'Magdalena del Mar', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'San Luis']</t>
+          <t>['Lince', 'Magdalena del Mar', 'San Isidro', 'Lima', 'Breña', 'Pueblo Libre', 'Cieneguilla', 'San Luis', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Lince']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>181.3870684219308</v>
+        <v>151.9291303577682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Chorrillos', 'La Perla', 'Bellavista', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'San Borja', 'San Luis', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos']</t>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Pachacámac', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Cieneguilla', 'Pueblo Libre']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>188.7381713381922</v>
+        <v>177.7959763441385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Chorrillos', 'La Perla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Ventanilla', 'Punta Hermosa']</t>
+          <t>['Lima', 'Breña', 'Lince', 'Los Olivos', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Pachacámac', 'Lima']</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>299.880494164394</v>
+        <v>151.4688762432579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['La Perla', 'Magdalena del Mar', 'San Miguel', 'Bellavista', 'Breña', 'Lima', 'San Borja', 'Chorrillos', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'San Luis', 'Ventanilla', 'Carabayllo', 'La Perla']</t>
+          <t>['Breña', 'Lima', 'Los Olivos', 'San Luis', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Lince', 'Pachacámac', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Breña']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>207.6287487355607</v>
+        <v>150.3825519593968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['San Luis', 'San Borja', 'Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Luis']</t>
+          <t>['Los Olivos', 'Breña', 'Lima', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'San Luis', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>215.0174869392636</v>
+        <v>126.0708592353893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['San Borja', 'San Luis', 'Lima', 'Breña', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'San Miguel', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Chorrillos', 'San Borja']</t>
+          <t>['Los Olivos', 'Breña', 'San Luis', 'Lince', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'San Isidro', 'Magdalena del Mar', 'Lima', 'Pueblo Libre', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>222.5935322949191</v>
+        <v>134.957094403358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['San Bartolo', 'Punta Negra', 'Chorrillos', 'San Borja', 'Lima', 'Breña', 'San Miguel', 'Magdalena del Mar', 'Bellavista', 'La Perla', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'San Luis', 'San Bartolo']</t>
+          <t>['Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Los Olivos', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Breña']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>251.630047147878</v>
+        <v>130.0046696206021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'Breña', 'Lima', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'San Luis', 'Ventanilla', 'Carabayllo', 'San Borja', 'Chorrillos', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Punta Hermosa']</t>
+          <t>['Cieneguilla', 'Breña', 'Lima', 'Lince', 'San Isidro', 'San Luis', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla']</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>254.1866936026848</v>
+        <v>135.782958720071</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['La Perla', 'Bellavista', 'San Miguel', 'Breña', 'Lima', 'Lurigancho (Chosica)', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Chorrillos', 'San Luis', 'San Borja', 'Magdalena del Mar', 'Ventanilla', 'Carabayllo', 'La Perla']</t>
+          <t>['Lima', 'Breña', 'Pachacámac', 'Cieneguilla', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Lima']</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>206.9923470569077</v>
+        <v>173.3773462972646</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'San Miguel', 'Breña', 'Lima', 'San Luis', 'Carabayllo', 'Ventanilla', 'Bellavista', 'La Perla', 'Chorrillos', 'San Borja', 'Lurigancho (Chosica)', 'San Bartolo']</t>
+          <t>['Cieneguilla', 'Breña', 'Lima', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Los Olivos', 'Punta Hermosa', 'Pachacámac', 'Punta Negra', 'Cieneguilla']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>212.7050542332267</v>
+        <v>163.4944949761997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Chorrillos', 'Carabayllo', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Ventanilla', 'San Miguel']</t>
+          <t>['Magdalena del Mar', 'Breña', 'San Luis', 'Lince', 'San Isidro', 'Pueblo Libre', 'Lima', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Los Olivos', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>250.5605274971438</v>
+        <v>136.3286535735726</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'San Borja', 'Lima', 'Breña', 'San Miguel', 'Bellavista', 'La Perla', 'Magdalena del Mar', 'San Luis', 'Chorrillos', 'Carabayllo', 'Ventanilla', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Punta Hermosa']</t>
+          <t>['San Isidro', 'Lince', 'Pueblo Libre', 'Lima', 'Breña', 'San Luis', 'Magdalena del Mar', 'Los Olivos', 'Punta Hermosa', 'Pachacámac', 'Punta Negra', 'Cieneguilla', 'San Isidro']</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>268.484865574221</v>
+        <v>166.3768380144491</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'San Borja', 'Chorrillos', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'La Perla']</t>
+          <t>['Punta Hermosa', 'Punta Negra', 'Lince', 'Lima', 'Breña', 'Magdalena del Mar', 'Pueblo Libre', 'San Isidro', 'San Luis', 'Los Olivos', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>188.518254149427</v>
+        <v>156.9260460239097</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Borja', 'San Luis', 'Bellavista', 'Carabayllo', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Ventanilla']</t>
+          <t>['Pachacámac', 'Cieneguilla', 'Breña', 'Lima', 'San Isidro', 'Magdalena del Mar', 'Lince', 'San Luis', 'Pueblo Libre', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac']</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>235.5350347428147</v>
+        <v>139.2997412795314</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'Carabayllo', 'San Luis', 'Breña', 'Lima', 'La Perla', 'Magdalena del Mar', 'San Miguel', 'San Borja', 'Chorrillos', 'Bellavista', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Ventanilla']</t>
+          <t>['Breña', 'Lima', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Pachacámac', 'Magdalena del Mar', 'Pueblo Libre', 'Punta Negra', 'Punta Hermosa', 'Cieneguilla', 'Breña']</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>219.47103265611</v>
+        <v>175.5869753528574</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['Bellavista', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Breña', 'Lima', 'San Borja', 'Carabayllo', 'Ventanilla', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'San Luis', 'Lurigancho (Chosica)', 'Chorrillos', 'Bellavista']</t>
+          <t>['Cieneguilla', 'Lima', 'Breña', 'San Luis', 'Lince', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla']</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>246.8342566848628</v>
+        <v>134.4637011254435</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'San Borja', 'San Luis', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Breña', 'Lima', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+          <t>['Pachacámac', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Cieneguilla', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac']</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>173.8447332878665</v>
+        <v>150.8163617672668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
         <v>3</v>
       </c>
-      <c r="B29" t="n">
-        <v>8</v>
-      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Carabayllo', 'Lurigancho (Chosica)', 'San Borja', 'Lima', 'Breña', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Miguel', 'San Luis', 'Chorrillos', 'Ventanilla', 'Punta Hermosa']</t>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>261.0443764936579</v>
+        <v>128.385756197448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'San Luis', 'Lurigancho (Chosica)', 'Carabayllo', 'Lima']</t>
+          <t>['Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Pueblo Libre', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>227.1721546086913</v>
+        <v>138.2535092649453</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['Chorrillos', 'San Borja', 'San Luis', 'Lima', 'Breña', 'La Perla', 'Magdalena del Mar', 'San Miguel', 'Bellavista', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Chorrillos']</t>
+          <t>['San Isidro', 'Lince', 'Magdalena del Mar', 'Los Olivos', 'Breña', 'Lima', 'Pueblo Libre', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Isidro']</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>203.7502995306033</v>
+        <v>126.6011145660435</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['Bellavista', 'La Perla', 'Magdalena del Mar', 'Breña', 'Lima', 'San Miguel', 'San Luis', 'Chorrillos', 'San Borja', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Ventanilla', 'Carabayllo', 'Punta Hermosa', 'Bellavista']</t>
+          <t>['Punta Hermosa', 'Pachacámac', 'Magdalena del Mar', 'Pueblo Libre', 'Lince', 'San Isidro', 'San Luis', 'Breña', 'Lima', 'Cieneguilla', 'Los Olivos', 'Punta Negra', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>286.9411354516855</v>
+        <v>149.1288373640568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['San Bartolo', 'Punta Negra', 'Ventanilla', 'Carabayllo', 'Lima', 'Breña', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'San Miguel', 'Lurigancho (Chosica)', 'Chorrillos', 'San Luis', 'San Borja', 'Punta Hermosa', 'San Bartolo']</t>
+          <t>['Punta Hermosa', 'Punta Negra', 'Pachacámac', 'San Luis', 'Pueblo Libre', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>234.6251164897139</v>
+        <v>127.034891689833</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['Chorrillos', 'San Borja', 'San Luis', 'Magdalena del Mar', 'La Perla', 'San Miguel', 'Bellavista', 'Breña', 'Lima', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Hermosa', 'Chorrillos']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Breña', 'Lince', 'Lima', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>247.0453145583128</v>
+        <v>153.162863020158</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Carabayllo', 'Lima', 'Breña', 'San Borja', 'San Luis', 'La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Chorrillos', 'Ventanilla', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+          <t>['Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Lima', 'Breña', 'Pueblo Libre', 'Los Olivos', 'Magdalena del Mar', 'Lince', 'San Luis', 'San Isidro', 'Cieneguilla', 'Pachacámac']</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>258.4596999005285</v>
+        <v>136.3821543467255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['Bellavista', 'La Perla', 'Magdalena del Mar', 'San Miguel', 'Breña', 'Lima', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Bellavista']</t>
+          <t>['Lince', 'San Isidro', 'San Luis', 'Lima', 'Breña', 'Los Olivos', 'Magdalena del Mar', 'Pueblo Libre', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Lince']</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>220.7237376315957</v>
+        <v>133.6644887625972</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'San Luis', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'Carabayllo', 'Lurigancho (Chosica)', 'Lima']</t>
+          <t>['Los Olivos', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Lince', 'San Luis', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>233.5829256623685</v>
+        <v>134.5094506589399</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Borja', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Magdalena del Mar']</t>
+          <t>['San Luis', 'San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Los Olivos', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'San Luis']</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>197.028899900737</v>
+        <v>146.529470269739</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['Magdalena del Mar', 'San Miguel', 'Breña', 'Bellavista', 'La Perla', 'San Luis', 'San Borja', 'Chorrillos', 'Lima', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar']</t>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Lince', 'San Isidro', 'San Luis', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>211.0755752875214</v>
+        <v>123.7680960077883</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['San Miguel', 'Lima', 'Breña', 'San Luis', 'Chorrillos', 'San Borja', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Miguel']</t>
+          <t>['Los Olivos', 'San Luis', 'Lima', 'Breña', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>193.7270183780343</v>
+        <v>139.5597178853436</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['San Borja', 'San Luis', 'Bellavista', 'La Perla', 'Chorrillos', 'Lima', 'Breña', 'San Miguel', 'Magdalena del Mar', 'Carabayllo', 'Ventanilla', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Lurigancho (Chosica)', 'San Borja']</t>
+          <t>['San Luis', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Lince', 'San Isidro', 'Cieneguilla', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'San Luis']</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>234.947147688551</v>
+        <v>146.9747920563404</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['San Luis', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'San Bartolo', 'Punta Negra', 'San Luis']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'Breña', 'Lima', 'Magdalena del Mar', 'San Isidro', 'Los Olivos', 'Lince', 'Pachacámac', 'San Luis', 'Pueblo Libre', 'Cieneguilla', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>244.0203751078195</v>
+        <v>178.7488251152523</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'Carabayllo', 'Ventanilla', 'Bellavista', 'La Perla', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lima']</t>
+          <t>['Cieneguilla', 'Pueblo Libre', 'San Isidro', 'Magdalena del Mar', 'Breña', 'Lince', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos', 'Lima', 'Cieneguilla']</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>221.1791934556213</v>
+        <v>153.3167620661557</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'San Luis', 'San Borja', 'Chorrillos', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Lurigancho (Chosica)', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Carabayllo', 'Ventanilla', 'Lima']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'Pueblo Libre', 'Lince', 'San Isidro', 'Lima', 'Breña', 'Los Olivos', 'Pachacámac', 'Cieneguilla', 'San Luis', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>228.6304200882042</v>
+        <v>160.2191104040924</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Miguel', 'La Perla', 'Bellavista', 'Chorrillos', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Borja', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'Magdalena del Mar']</t>
+          <t>['Magdalena del Mar', 'Lince', 'San Isidro', 'Pueblo Libre', 'Lima', 'Breña', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>212.7638535397664</v>
+        <v>169.8943777357539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['Chorrillos', 'Carabayllo', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Luis', 'San Borja', 'Ventanilla', 'Lurigancho (Chosica)', 'Chorrillos']</t>
+          <t>['Los Olivos', 'Pueblo Libre', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Cieneguilla', 'Lima', 'Breña', 'San Luis', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>271.0442169171919</v>
+        <v>151.8971744688078</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['Carabayllo', 'Lima', 'Breña', 'Ventanilla', 'Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+          <t>['Los Olivos', 'Pachacámac', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Pueblo Libre', 'Breña', 'Lima', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>203.1299394598942</v>
+        <v>164.4402231452551</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'San Luis', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Carabayllo', 'Lima', 'Breña', 'Chorrillos', 'Lurigancho (Chosica)', 'Ventanilla']</t>
+          <t>['Breña', 'Lima', 'Lince', 'Magdalena del Mar', 'San Isidro', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Pueblo Libre', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Breña']</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>260.1263694641743</v>
+        <v>146.9050803206869</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'Magdalena del Mar', 'San Miguel', 'Lima', 'Breña', 'La Perla', 'Bellavista', 'San Luis', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla']</t>
+          <t>['Magdalena del Mar', 'Lince', 'San Isidro', 'Pueblo Libre', 'San Luis', 'Breña', 'Lima', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>183.5621497667582</v>
+        <v>138.5066119368816</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['Breña', 'Lima', 'San Luis', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Ventanilla', 'La Perla', 'Bellavista', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Breña']</t>
+          <t>['Breña', 'Magdalena del Mar', 'Los Olivos', 'Pueblo Libre', 'Lince', 'San Isidro', 'San Luis', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Lima', 'Cieneguilla', 'Breña']</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>249.6598583103062</v>
+        <v>152.936860462925</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'San Bartolo', 'La Perla', 'Bellavista', 'San Miguel', 'San Borja', 'Chorrillos', 'San Luis', 'Breña', 'Lima', 'Punta Hermosa', 'Magdalena del Mar', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+          <t>['San Isidro', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'San Isidro']</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>260.8005527149541</v>
+        <v>142.6918774512393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'Lima', 'Breña', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Pueblo Libre', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Los Olivos', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>187.0756187025729</v>
+        <v>174.6274790826383</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['Carabayllo', 'Bellavista', 'La Perla', 'San Miguel', 'Lima', 'Breña', 'San Luis', 'San Borja', 'Chorrillos', 'Ventanilla', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+          <t>['Los Olivos', 'Lima', 'Breña', 'Lince', 'San Isidro', 'San Luis', 'Magdalena del Mar', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Pueblo Libre', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>254.2042523814878</v>
+        <v>133.1547130883457</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['San Borja', 'Breña', 'Lima', 'San Luis', 'Chorrillos', 'La Perla', 'Bellavista', 'Punta Hermosa', 'San Miguel', 'Magdalena del Mar', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'San Borja']</t>
+          <t>['Breña', 'Lima', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Punta Negra', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Los Olivos', 'San Luis', 'Breña']</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>278.3027305357011</v>
+        <v>181.1424900312847</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Borja', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Chorrillos', 'San Luis', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)']</t>
+          <t>['Cieneguilla', 'Punta Hermosa', 'Pachacámac', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Los Olivos', 'Punta Negra', 'Cieneguilla']</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>195.5750141323331</v>
+        <v>180.3665946613472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Breña', 'Lima', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Chorrillos', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Bartolo']</t>
+          <t>['Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Pueblo Libre', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>213.6254566044911</v>
+        <v>137.1557211470446</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" t="n">
         <v>6</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['Chorrillos', 'Carabayllo', 'Ventanilla', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Chorrillos']</t>
+          <t>['Breña', 'Lima', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'San Luis', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Breña']</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>221.6352833524403</v>
+        <v>153.297578218037</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" t="n">
         <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lima', 'Breña', 'Chorrillos', 'San Borja', 'San Luis', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Bellavista']</t>
+          <t>['San Luis', 'San Isidro', 'Lince', 'Pueblo Libre', 'Lima', 'Breña', 'Magdalena del Mar', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'San Luis']</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>228.1214696995576</v>
+        <v>134.900541697728</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59" t="n">
         <v>8</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'La Perla']</t>
+          <t>['Punta Negra', 'Pueblo Libre', 'Lince', 'San Isidro', 'Lima', 'Breña', 'Magdalena del Mar', 'San Luis', 'Los Olivos', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>213.1021321977686</v>
+        <v>187.2005948628994</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60" t="n">
         <v>9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['Chorrillos', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Miguel', 'Breña', 'Lima', 'San Borja', 'San Luis', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Chorrillos']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Pueblo Libre', 'Lince', 'San Isidro', 'Breña', 'Lima', 'San Luis', 'Cieneguilla', 'Magdalena del Mar', 'Los Olivos', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>216.9695248587699</v>
+        <v>157.2611719954672</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61" t="n">
         <v>10</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Chorrillos', 'San Borja', 'Lima', 'Breña', 'San Luis', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+          <t>['Punta Negra', 'Magdalena del Mar', 'Breña', 'Lince', 'San Isidro', 'Pueblo Libre', 'Lima', 'San Luis', 'Los Olivos', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>199.9598794541276</v>
+        <v>161.4671175764321</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['Breña', 'Lima', 'San Luis', 'San Borja', 'La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Chorrillos', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Breña']</t>
+          <t>['Breña', 'Lima', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Breña']</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>228.8084150494998</v>
+        <v>138.7662382475699</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['San Luis', 'Lima', 'Breña', 'Punta Negra', 'San Bartolo', 'San Borja', 'Magdalena del Mar', 'Bellavista', 'La Perla', 'San Miguel', 'Chorrillos', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Luis']</t>
+          <t>['San Isidro', 'Breña', 'Lima', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'San Isidro']</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>267.0397078554639</v>
+        <v>141.5044147958632</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['San Borja', 'Chorrillos', 'Breña', 'Lima', 'San Luis', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Carabayllo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'San Borja']</t>
+          <t>['San Isidro', 'Lince', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'Pueblo Libre', 'Pachacámac', 'Punta Negra', 'Cieneguilla', 'Los Olivos', 'Punta Hermosa', 'San Isidro']</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>251.9096976775929</v>
+        <v>197.1263664157548</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['San Miguel', 'Chorrillos', 'San Borja', 'San Luis', 'Bellavista', 'La Perla', 'Lima', 'Breña', 'Magdalena del Mar', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Miguel']</t>
+          <t>['Pachacámac', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Isidro', 'San Luis', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Pachacámac']</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>237.2902358961352</v>
+        <v>171.3569216253938</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Ventanilla', 'Lurigancho (Chosica)', 'Carabayllo', 'Lima']</t>
+          <t>['Los Olivos', 'Breña', 'Lima', 'Lince', 'San Luis', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>220.2865655424254</v>
+        <v>136.3613687679512</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Borja', 'Chorrillos', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Lurigancho (Chosica)', 'San Luis', 'Ventanilla', 'Carabayllo', 'Lima']</t>
+          <t>['Los Olivos', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Luis', 'Lima', 'San Isidro', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>211.2797897661106</v>
+        <v>155.9238387957176</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Breña', 'Lima', 'San Luis', 'San Borja', 'Chorrillos', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Bartolo']</t>
+          <t>['Cieneguilla', 'Pachacámac', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Breña', 'Lima', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla']</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>205.2383590314147</v>
+        <v>149.7807405050607</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['Carabayllo', 'Ventanilla', 'Lima', 'Breña', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+          <t>['Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Los Olivos', 'Punta Negra', 'Lince']</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>213.6954730067758</v>
+        <v>185.3975715072437</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['San Bartolo', 'Punta Negra', 'Punta Hermosa', 'San Luis', 'Chorrillos', 'San Borja', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'La Perla', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'San Bartolo']</t>
+          <t>['San Luis', 'Lince', 'San Isidro', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Breña', 'Lima', 'Los Olivos', 'Magdalena del Mar', 'Pueblo Libre', 'Cieneguilla', 'San Luis']</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>211.7089783490311</v>
+        <v>142.578684804468</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B71" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'Carabayllo', 'Bellavista', 'La Perla', 'Magdalena del Mar', 'San Miguel', 'Lima', 'Breña', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Ventanilla']</t>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Los Olivos', 'San Luis', 'Pachacámac', 'Lima']</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>192.0280265350339</v>
+        <v>160.7633164363927</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Ventanilla', 'Carabayllo', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Lima']</t>
+          <t>['San Isidro', 'Lince', 'San Luis', 'Magdalena del Mar', 'Breña', 'Lima', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'San Isidro']</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>199.0951982555582</v>
+        <v>152.320446430329</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Chorrillos', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Punta Negra']</t>
+          <t>['Cieneguilla', 'Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Punta Negra', 'Pachacámac', 'Punta Hermosa', 'Cieneguilla']</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>202.035168461747</v>
+        <v>147.1835159474207</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'Chorrillos', 'San Borja', 'San Luis', 'Magdalena del Mar', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'Ventanilla', 'Carabayllo', 'Lima']</t>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Lince', 'San Isidro', 'Lima', 'Breña', 'Los Olivos', 'Cieneguilla', 'San Luis', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>203.2941507400135</v>
+        <v>136.1040732634268</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla']</t>
+          <t>['San Isidro', 'Breña', 'Lima', 'Pueblo Libre', 'Lince', 'San Luis', 'Magdalena del Mar', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Los Olivos', 'San Isidro']</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>179.8774895162566</v>
+        <v>135.9141746858586</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['Magdalena del Mar', 'Bellavista', 'La Perla', 'San Borja', 'San Luis', 'Lima', 'Breña', 'San Miguel', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'Punta Negra', 'Punta Hermosa', 'Chorrillos', 'San Bartolo', 'Magdalena del Mar']</t>
+          <t>['Los Olivos', 'Pueblo Libre', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Magdalena del Mar', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>243.549886050681</v>
+        <v>132.7423810146091</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Lima', 'Breña', 'San Luis', 'San Borja', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Chorrillos']</t>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Lince', 'San Isidro', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>203.7958046452678</v>
+        <v>131.6657490554257</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'Carabayllo', 'Breña', 'Lima', 'San Borja', 'San Luis', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Chorrillos', 'Lurigancho (Chosica)', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Ventanilla']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>225.1234928395554</v>
+        <v>144.5645101405493</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['Carabayllo', 'Ventanilla', 'San Luis', 'Lima', 'Breña', 'San Miguel', 'Magdalena del Mar', 'San Borja', 'Chorrillos', 'La Perla', 'Bellavista', 'Punta Negra', 'Punta Hermosa', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+          <t>['Los Olivos', 'Lima', 'Breña', 'Lince', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>215.2063200596714</v>
+        <v>134.0103799508063</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Luis', 'Breña', 'Lima', 'Chorrillos', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)']</t>
+          <t>['Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Breña']</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>254.5613333227195</v>
+        <v>129.9645266671008</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['San Luis', 'San Borja', 'Chorrillos', 'Bellavista', 'La Perla', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'Carabayllo', 'Ventanilla', 'Lurigancho (Chosica)', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'San Luis']</t>
+          <t>['Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Cieneguilla', 'Lince', 'San Isidro', 'Los Olivos', 'Punta Hermosa']</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>205.0658563245609</v>
+        <v>150.588864909653</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Breña']</t>
+          <t>['Lince', 'San Luis', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Breña', 'Lima', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Lince']</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>221.8118310744776</v>
+        <v>134.1064649116248</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Negra']</t>
+          <t>['Lima', 'Breña', 'Lince', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Lima']</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>203.4852479268204</v>
+        <v>128.7309808926743</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Lima', 'Breña', 'San Luis', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar']</t>
+          <t>['Magdalena del Mar', 'Breña', 'Lima', 'San Isidro', 'Lince', 'Pueblo Libre', 'San Luis', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>176.5230439658811</v>
+        <v>138.9924999363099</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" t="n">
         <v>9</v>
       </c>
-      <c r="B85" t="n">
-        <v>4</v>
-      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['Carabayllo', 'Lurigancho (Chosica)', 'Ventanilla', 'Breña', 'Lima', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Luis', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Carabayllo']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Luis', 'San Isidro', 'Cieneguilla', 'Los Olivos', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>217.318561321564</v>
+        <v>151.505716909317</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['San Luis', 'Lima', 'Breña', 'San Miguel', 'La Perla', 'Bellavista', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'San Borja', 'Chorrillos', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'San Luis']</t>
+          <t>['Punta Negra', 'Punta Hermosa', 'San Luis', 'Lima', 'Breña', 'Lince', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Cieneguilla', 'Los Olivos', 'Pachacámac', 'Punta Negra']</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>217.0639959709504</v>
+        <v>147.9992232217437</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['La Perla', 'Bellavista', 'Magdalena del Mar', 'Breña', 'Lima', 'San Miguel', 'Carabayllo', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'San Luis', 'Ventanilla', 'La Perla']</t>
+          <t>['San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Punta Negra', 'Pachacámac', 'Punta Hermosa', 'San Isidro']</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>236.6418472686894</v>
+        <v>165.4014297649</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['La Perla', 'Bellavista', 'Lima', 'Breña', 'San Miguel', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar', 'La Perla']</t>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'San Luis', 'San Isidro', 'Lince', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Los Olivos', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>186.5655490988827</v>
+        <v>129.9580626755793</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'San Bartolo', 'Punta Negra', 'San Borja', 'San Luis', 'Chorrillos', 'La Perla', 'Bellavista', 'Magdalena del Mar', 'San Miguel', 'Breña', 'Lima', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Hermosa']</t>
+          <t>['Lima', 'Breña', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Lima']</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>212.1545980591475</v>
+        <v>132.1661347609802</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Luis', 'San Borja', 'Chorrillos', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Lima']</t>
+          <t>['Breña', 'Lima', 'San Isidro', 'Lince', 'Cieneguilla', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Breña']</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>177.7349586213794</v>
+        <v>153.4951298406957</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B91" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['Chorrillos', 'San Borja', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Breña', 'Lima', 'San Luis', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Chorrillos']</t>
+          <t>['Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Cieneguilla', 'Punta Hermosa', 'Pachacámac', 'Punta Negra', 'Los Olivos', 'Pueblo Libre']</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>218.7117442370761</v>
+        <v>163.8705427186312</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Chorrillos', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'San Miguel']</t>
+          <t>['Lince', 'Lima', 'Breña', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'San Isidro', 'Lince']</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>215.5619090926166</v>
+        <v>135.9141421288319</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['Carabayllo', 'Ventanilla', 'Lima', 'Breña', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo']</t>
+          <t>['Breña', 'Lima', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'San Isidro', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'San Luis', 'Breña']</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>179.8774895162566</v>
+        <v>134.4859524724072</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['Magdalena del Mar', 'San Borja', 'San Luis', 'Breña', 'Lima', 'San Miguel', 'La Perla', 'Bellavista', 'Punta Negra', 'San Bartolo', 'Punta Hermosa', 'Chorrillos', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar']</t>
+          <t>['Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Los Olivos', 'Lima', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Breña']</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>204.2205206709813</v>
+        <v>134.4946457253276</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['Breña', 'Lima', 'La Perla', 'Bellavista', 'San Miguel', 'Magdalena del Mar', 'San Luis', 'San Borja', 'Chorrillos', 'Ventanilla', 'Carabayllo', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Breña']</t>
+          <t>['Magdalena del Mar', 'Breña', 'Lima', 'Los Olivos', 'Lince', 'Pueblo Libre', 'Cieneguilla', 'San Luis', 'San Isidro', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Magdalena del Mar']</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>198.8425358046456</v>
+        <v>147.597778566349</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['Punta Hermosa', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'San Luis', 'Breña', 'Lima', 'Carabayllo', 'Ventanilla', 'Chorrillos', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa']</t>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Breña', 'Lima', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Pueblo Libre']</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>221.0912881950595</v>
+        <v>133.1863241955788</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['Carabayllo', 'Ventanilla', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'San Borja', 'Chorrillos', 'Lima', 'Breña', 'San Luis', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Carabayllo']</t>
+          <t>['Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Pachacámac']</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>220.9478065562231</v>
+        <v>124.0119980088806</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['San Luis', 'San Borja', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Lurigancho (Chosica)', 'Carabayllo', 'Ventanilla', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Lima', 'Breña', 'San Luis']</t>
+          <t>['Cieneguilla', 'San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'Breña', 'Lima', 'Los Olivos', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Cieneguilla']</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>176.5230439658811</v>
+        <v>135.2433285146348</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['Bellavista', 'La Perla', 'San Miguel', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'Chorrillos', 'San Borja', 'Lurigancho (Chosica)', 'San Bartolo', 'Punta Negra', 'Punta Hermosa', 'Carabayllo', 'Ventanilla', 'Bellavista']</t>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Lima', 'Breña', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pueblo Libre']</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>209.7577569574946</v>
+        <v>150.5205066062813</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['Ventanilla', 'Magdalena del Mar', 'San Miguel', 'La Perla', 'Bellavista', 'Lima', 'Breña', 'San Borja', 'San Luis', 'Lurigancho (Chosica)', 'Carabayllo', 'Chorrillos', 'Punta Hermosa', 'Punta Negra', 'San Bartolo', 'Ventanilla']</t>
+          <t>['Los Olivos', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'San Isidro', 'Lince', 'Breña', 'Lima', 'Cieneguilla', 'Punta Hermosa', 'Pachacámac', 'Punta Negra', 'Los Olivos']</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>238.2991508747394</v>
+        <v>163.2424816712127</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>4</v>
+      </c>
+      <c r="B101" t="n">
+        <v>25</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Breña', 'Lima', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'San Luis', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>128.5382802366013</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Los Olivos', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Lince', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>123.6344547742352</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>146.4923516346871</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>5</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>144.5638189407434</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'San Luis', 'Lima', 'Pueblo Libre', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Los Olivos', 'Breña', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>131.7844940772738</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>155.3822373661516</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>5</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'San Luis', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>132.3475791448068</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>5</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'Pachacámac', 'Breña', 'Lima', 'San Luis', 'San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>155.7019697488998</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Lima', 'Magdalena del Mar', 'Pueblo Libre', 'San Isidro', 'Lince', 'San Luis', 'Breña', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>137.0475236654281</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>5</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Breña', 'Lima', 'San Luis', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>132.7326994441389</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>5</v>
+      </c>
+      <c r="B111" t="n">
         <v>10</v>
       </c>
-      <c r="B101" t="n">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Breña', 'Lima', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'San Luis', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>132.0931423739549</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'San Isidro', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>129.3241797532393</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>5</v>
+      </c>
+      <c r="B113" t="n">
+        <v>12</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'San Luis', 'San Isidro', 'Pueblo Libre', 'Lima', 'Breña', 'Magdalena del Mar', 'Lince', 'Pachacámac', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>158.6277390832309</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" t="n">
+        <v>13</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'San Luis', 'Lince', 'San Isidro', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>127.359398319777</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5</v>
+      </c>
+      <c r="B115" t="n">
+        <v>14</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>['Lince', 'San Isidro', 'Breña', 'Lima', 'San Luis', 'Magdalena del Mar', 'Pueblo Libre', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Los Olivos', 'Lince']</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>143.4001442345875</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>5</v>
+      </c>
+      <c r="B116" t="n">
+        <v>15</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Breña', 'Lima', 'Lince', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>139.6900732626077</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>5</v>
+      </c>
+      <c r="B117" t="n">
+        <v>16</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'Lince', 'San Isidro', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Los Olivos', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>167.2558390765204</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>17</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Cieneguilla', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>147.5492498337355</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="n">
+        <v>18</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Breña', 'San Luis', 'Los Olivos', 'Lima', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>140.1771667785073</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="n">
+        <v>19</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Cieneguilla', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>148.2064117568235</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="n">
+        <v>20</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Lima', 'Breña', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Magdalena del Mar', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>146.1209264400601</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" t="n">
+        <v>21</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>125.3467118467724</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>5</v>
+      </c>
+      <c r="B123" t="n">
+        <v>22</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Cieneguilla', 'Pachacámac', 'Magdalena del Mar', 'Lima', 'Breña', 'Pueblo Libre', 'Lince', 'San Isidro', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>168.5797890771686</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" t="n">
+        <v>23</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>124.0669988871518</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" t="n">
+        <v>24</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'San Isidro', 'San Luis', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>137.3211881785001</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="n">
+        <v>25</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'Punta Negra', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Lima', 'Breña', 'San Luis', 'Los Olivos', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>156.4083754494612</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'Breña', 'Lima', 'Lince', 'San Isidro', 'San Luis', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>138.7348634654311</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'Lince', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>142.5779711362696</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>118.8573485272925</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'San Isidro', 'Lince', 'Lima', 'Breña', 'San Luis', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>130.7287686272689</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Lima', 'Breña', 'Lince', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Los Olivos', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>129.552401480997</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>6</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'San Luis', 'San Isidro', 'Pueblo Libre', 'Lima', 'Breña', 'Lince', 'Magdalena del Mar', 'Los Olivos', 'Cieneguilla', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>130.9051884531218</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>6</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>131.0381071736418</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>6</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Los Olivos', 'Cieneguilla', 'San Luis', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>141.2096165949833</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Punta Hermosa', 'San Luis', 'Pueblo Libre', 'Breña', 'Lima', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>154.999838700758</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6</v>
+      </c>
+      <c r="B136" t="n">
         <v>10</v>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>['Lima', 'Breña', 'San Miguel', 'Magdalena del Mar', 'La Perla', 'Bellavista', 'Chorrillos', 'Punta Hermosa', 'San Bartolo', 'Punta Negra', 'Lurigancho (Chosica)', 'San Luis', 'San Borja', 'Ventanilla', 'Carabayllo', 'Lima']</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>202.3635489041907</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>['Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'San Luis', 'Lima', 'Breña', 'San Isidro', 'Los Olivos', 'Pachacámac', 'Lince']</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>171.140812856515</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Lince', 'San Isidro', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Lima', 'Breña', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>163.718951597709</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'Punta Negra', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Los Olivos', 'Breña', 'Lima', 'Pachacámac', 'Cieneguilla', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>152.4406118570367</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>6</v>
+      </c>
+      <c r="B139" t="n">
+        <v>13</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>['Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Lince']</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>134.6876684131425</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>6</v>
+      </c>
+      <c r="B140" t="n">
+        <v>14</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Breña', 'Lima', 'San Luis', 'Cieneguilla', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>124.533628805333</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Breña', 'Lima', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>144.9094201638847</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>6</v>
+      </c>
+      <c r="B142" t="n">
+        <v>16</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'Lince', 'Pueblo Libre', 'Los Olivos', 'Punta Hermosa', 'Pachacámac', 'Punta Negra', 'Cieneguilla', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>164.5329279141653</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B143" t="n">
+        <v>17</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos', 'Cieneguilla', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>142.7773723210808</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>6</v>
+      </c>
+      <c r="B144" t="n">
+        <v>18</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Isidro', 'Lince', 'Pueblo Libre', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'San Luis', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>153.2737267462974</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>6</v>
+      </c>
+      <c r="B145" t="n">
+        <v>19</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>126.1977199614701</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>6</v>
+      </c>
+      <c r="B146" t="n">
+        <v>20</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>['Lima', 'Magdalena del Mar', 'Pueblo Libre', 'San Isidro', 'Lince', 'Breña', 'San Luis', 'Cieneguilla', 'Punta Negra', 'Pachacámac', 'Punta Hermosa', 'Los Olivos', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>158.2359027229115</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>6</v>
+      </c>
+      <c r="B147" t="n">
+        <v>21</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'Los Olivos', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>127.4744391098396</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>6</v>
+      </c>
+      <c r="B148" t="n">
+        <v>22</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'San Luis', 'Lince', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>130.670954123117</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>6</v>
+      </c>
+      <c r="B149" t="n">
+        <v>23</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'San Luis', 'Lince', 'San Isidro', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>132.5787843605574</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>6</v>
+      </c>
+      <c r="B150" t="n">
+        <v>24</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Cieneguilla', 'Los Olivos', 'Lima', 'Breña', 'San Luis', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Punta Negra', 'Punta Hermosa', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>124.461640596414</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>6</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Cieneguilla', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>147.053637382207</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>7</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Pueblo Libre', 'Magdalena del Mar', 'Breña', 'Lima', 'Lince', 'San Isidro', 'San Luis', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>132.1536979482179</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>7</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Lima', 'Breña', 'Lince', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>135.3410720308157</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>7</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>125.5680869530043</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>7</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Los Olivos', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>130.8184065896434</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>7</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Lince', 'San Isidro', 'San Luis', 'Breña', 'Lima', 'Magdalena del Mar', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>136.2863170827367</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>7</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'San Isidro', 'Lince', 'Magdalena del Mar', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Los Olivos', 'San Luis', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>141.656769636206</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>7</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Lima', 'Breña', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'San Isidro', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>125.4526164313632</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>7</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'Pachacámac', 'San Luis', 'Lince', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Lima', 'Breña', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>148.2630882160287</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>7</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>128.1252947106485</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>7</v>
+      </c>
+      <c r="B161" t="n">
+        <v>10</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Cieneguilla', 'Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>118.8573485272925</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>7</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>125.0636875881852</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>7</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Los Olivos', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>133.5845490305247</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>7</v>
+      </c>
+      <c r="B164" t="n">
+        <v>13</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'San Luis', 'Breña', 'Lima', 'San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>127.4487004165762</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>7</v>
+      </c>
+      <c r="B165" t="n">
+        <v>14</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>134.3482837369328</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>7</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>127.5477568339149</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>7</v>
+      </c>
+      <c r="B167" t="n">
+        <v>16</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'San Luis', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>141.5965275657374</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>7</v>
+      </c>
+      <c r="B168" t="n">
+        <v>17</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'Lince', 'Breña', 'Lima', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Pachacámac', 'Los Olivos', 'San Isidro', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>155.0223591676866</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>7</v>
+      </c>
+      <c r="B169" t="n">
+        <v>18</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'Lince', 'San Isidro', 'Los Olivos', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Cieneguilla', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>141.9392961522796</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>7</v>
+      </c>
+      <c r="B170" t="n">
+        <v>19</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Lince', 'San Isidro', 'Lima', 'Breña', 'Magdalena del Mar', 'Pueblo Libre', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Los Olivos', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>134.5217172275261</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>7</v>
+      </c>
+      <c r="B171" t="n">
+        <v>20</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Lima', 'Breña', 'Pueblo Libre', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>139.3821710311583</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>7</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Luis', 'Magdalena del Mar', 'Pueblo Libre', 'San Isidro', 'Lince', 'Los Olivos', 'Lima', 'Breña', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>128.6684139993554</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>7</v>
+      </c>
+      <c r="B173" t="n">
+        <v>22</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Lima', 'Breña', 'San Luis', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>169.6126402952365</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>7</v>
+      </c>
+      <c r="B174" t="n">
+        <v>23</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Cieneguilla', 'Breña', 'Lima', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>138.5601407647036</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>7</v>
+      </c>
+      <c r="B175" t="n">
+        <v>24</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'San Luis', 'Breña', 'Lima', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>173.8315110855659</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>7</v>
+      </c>
+      <c r="B176" t="n">
+        <v>25</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'San Isidro', 'San Luis', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>132.8416574893324</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>8</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Cieneguilla', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>127.0801694919971</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>8</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'Pachacámac', 'Magdalena del Mar', 'Pueblo Libre', 'Lince', 'San Isidro', 'San Luis', 'Lima', 'Breña', 'Los Olivos', 'Punta Negra', 'Cieneguilla', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>179.5410804375636</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>8</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>['Lince', 'San Isidro', 'Los Olivos', 'Lima', 'Breña', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Lince']</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>129.6169775938535</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>8</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Breña', 'Lima', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>131.6128208966167</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>8</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>140.8395876618174</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>8</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>124.0119980088806</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>8</v>
+      </c>
+      <c r="B183" t="n">
+        <v>7</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Lince', 'Magdalena del Mar', 'San Isidro', 'San Luis', 'Cieneguilla', 'Los Olivos', 'Pueblo Libre', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>147.7697986913573</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>8</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Cieneguilla', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Lince', 'San Isidro', 'San Luis', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>148.3454887935974</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>8</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>120.6211761140806</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>8</v>
+      </c>
+      <c r="B186" t="n">
+        <v>10</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Los Olivos', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>132.5787843605574</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>8</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Isidro', 'San Luis', 'Lince', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>130.8243175906779</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>8</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Isidro', 'Lince', 'Lima', 'Breña', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'San Luis', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>137.8582266932659</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>8</v>
+      </c>
+      <c r="B189" t="n">
+        <v>13</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>171.204593308528</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>8</v>
+      </c>
+      <c r="B190" t="n">
+        <v>14</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>['San Luis', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Lima', 'Breña', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>125.5246918839845</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>8</v>
+      </c>
+      <c r="B191" t="n">
+        <v>15</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Breña', 'Lima', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>129.3889244045626</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>8</v>
+      </c>
+      <c r="B192" t="n">
+        <v>16</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Pueblo Libre', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Cieneguilla', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>153.9045539609551</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>8</v>
+      </c>
+      <c r="B193" t="n">
+        <v>17</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>125.9515077257841</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>8</v>
+      </c>
+      <c r="B194" t="n">
+        <v>18</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'Magdalena del Mar', 'Pueblo Libre', 'Lince', 'San Isidro', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>131.9351275288537</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>8</v>
+      </c>
+      <c r="B195" t="n">
+        <v>19</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'Lince', 'San Isidro', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>132.077619368791</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>8</v>
+      </c>
+      <c r="B196" t="n">
+        <v>20</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Lima', 'Breña', 'San Luis', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>139.683973995779</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>8</v>
+      </c>
+      <c r="B197" t="n">
+        <v>21</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Breña', 'Lima', 'San Luis', 'San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>129.0737680741127</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>8</v>
+      </c>
+      <c r="B198" t="n">
+        <v>22</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Lince', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Breña', 'Lima', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Los Olivos', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>131.1816043280849</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>8</v>
+      </c>
+      <c r="B199" t="n">
+        <v>23</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Lince', 'San Isidro', 'Cieneguilla', 'Pachacámac', 'Los Olivos', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>171.0265863702326</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>8</v>
+      </c>
+      <c r="B200" t="n">
+        <v>24</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'San Luis', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>134.0658399664163</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>8</v>
+      </c>
+      <c r="B201" t="n">
+        <v>25</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Los Olivos', 'Cieneguilla', 'Breña', 'Lima', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>148.1349702398014</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>9</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'Lince', 'San Isidro', 'Lima', 'Breña', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>138.2898602653932</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>9</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>132.468111149437</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>9</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Los Olivos', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>131.9884003959457</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>9</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'San Isidro', 'Lince', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>127.1116103410607</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>9</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Lince', 'San Luis', 'San Isidro', 'Pueblo Libre', 'Magdalena del Mar', 'Breña', 'Lima', 'Cieneguilla', 'Los Olivos', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>148.8233126879956</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>9</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'Los Olivos', 'Lima', 'Breña', 'Lince', 'San Isidro', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'Punta Hermosa', 'Pachacámac', 'Punta Negra', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>151.9115574018661</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>9</v>
+      </c>
+      <c r="B208" t="n">
+        <v>7</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'San Luis', 'Los Olivos', 'Breña', 'Lima', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>128.6575857149078</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>9</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Isidro', 'Lince', 'Breña', 'Lima', 'Pueblo Libre', 'San Luis', 'Cieneguilla', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Los Olivos', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>136.0441538387605</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>9</v>
+      </c>
+      <c r="B210" t="n">
+        <v>9</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'Los Olivos', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Breña', 'Lima', 'San Luis', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>123.5326103997671</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>10</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'San Luis', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Los Olivos', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>121.7498378802936</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>9</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Los Olivos', 'Cieneguilla', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>128.0052943224183</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>9</v>
+      </c>
+      <c r="B213" t="n">
+        <v>12</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Lima', 'Breña', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>130.3544945176025</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>9</v>
+      </c>
+      <c r="B214" t="n">
+        <v>13</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>127.301544598229</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>9</v>
+      </c>
+      <c r="B215" t="n">
+        <v>14</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Los Olivos', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>124.2180500805594</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>9</v>
+      </c>
+      <c r="B216" t="n">
+        <v>15</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Breña', 'Lima', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>128.5545210605806</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>9</v>
+      </c>
+      <c r="B217" t="n">
+        <v>16</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'San Luis', 'Breña', 'Lima', 'Magdalena del Mar', 'Pueblo Libre', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Los Olivos', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>132.3636044384172</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>9</v>
+      </c>
+      <c r="B218" t="n">
+        <v>17</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Breña', 'Lima', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>124.461640596414</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>9</v>
+      </c>
+      <c r="B219" t="n">
+        <v>18</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'San Luis', 'Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Cieneguilla', 'Pachacámac', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>125.2932670960367</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>9</v>
+      </c>
+      <c r="B220" t="n">
+        <v>19</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Magdalena del Mar', 'Pueblo Libre', 'San Isidro', 'Lince', 'San Luis', 'Lima', 'Breña', 'Los Olivos', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>135.7230743304844</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>9</v>
+      </c>
+      <c r="B221" t="n">
+        <v>20</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Breña', 'Lima', 'Lince', 'San Luis', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Pachacámac', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>155.1364231018302</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>9</v>
+      </c>
+      <c r="B222" t="n">
+        <v>21</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Lima', 'Breña', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>128.6297884636176</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>9</v>
+      </c>
+      <c r="B223" t="n">
+        <v>22</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>['Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'San Luis', 'Los Olivos', 'Lima', 'Breña', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Lince']</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>129.0541952276517</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>9</v>
+      </c>
+      <c r="B224" t="n">
+        <v>23</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'San Luis', 'Lince', 'Lima', 'Breña', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>126.326329551923</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>9</v>
+      </c>
+      <c r="B225" t="n">
+        <v>24</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>['Pachacámac', 'Cieneguilla', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Breña', 'Lima', 'San Luis', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac']</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>137.9497598026865</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>9</v>
+      </c>
+      <c r="B226" t="n">
+        <v>25</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>['Cieneguilla', 'San Luis', 'San Isidro', 'Lince', 'Breña', 'Lima', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla']</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>132.0931423739549</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>10</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>124.713662532088</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>10</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Lince', 'San Isidro', 'Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>129.0070347966621</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>10</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>['San Luis', 'San Isidro', 'Lince', 'Pueblo Libre', 'Magdalena del Mar', 'Lima', 'Breña', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>129.9083156927897</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>10</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>134.0658399664163</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>10</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Lince', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>131.7922957001372</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>10</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Lima', 'Breña', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>129.885293403959</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>10</v>
+      </c>
+      <c r="B233" t="n">
+        <v>7</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>['Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'Lima', 'Breña', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Pueblo Libre']</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>129.885293403959</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>10</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Pueblo Libre', 'Los Olivos', 'Lima', 'Breña', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Magdalena del Mar', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>124.4362968163935</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>10</v>
+      </c>
+      <c r="B235" t="n">
+        <v>9</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Lince', 'Pueblo Libre', 'Lima', 'Breña', 'San Luis', 'San Isidro', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>133.88908797533</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>10</v>
+      </c>
+      <c r="B236" t="n">
+        <v>10</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>['Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Punta Negra']</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>119.3469275716672</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>10</v>
+      </c>
+      <c r="B237" t="n">
+        <v>11</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>132.3039262907604</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>10</v>
+      </c>
+      <c r="B238" t="n">
+        <v>12</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>['San Luis', 'Breña', 'Lima', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Pueblo Libre', 'Magdalena del Mar', 'Lince', 'San Isidro', 'Los Olivos', 'San Luis']</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>135.6334200031324</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>10</v>
+      </c>
+      <c r="B239" t="n">
+        <v>13</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>124.713662532088</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>10</v>
+      </c>
+      <c r="B240" t="n">
+        <v>14</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Breña', 'Lima', 'San Luis', 'Pueblo Libre', 'Magdalena del Mar', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>128.5478600043489</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>10</v>
+      </c>
+      <c r="B241" t="n">
+        <v>15</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Cieneguilla', 'San Luis', 'Los Olivos', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>144.2545178427514</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>10</v>
+      </c>
+      <c r="B242" t="n">
+        <v>16</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'Pueblo Libre', 'Breña', 'Lima', 'Lince', 'San Luis', 'San Isidro', 'Los Olivos', 'Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>140.2000191074257</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>10</v>
+      </c>
+      <c r="B243" t="n">
+        <v>17</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'Breña', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Pueblo Libre', 'Magdalena del Mar', 'Lima', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>137.0245459705769</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>10</v>
+      </c>
+      <c r="B244" t="n">
+        <v>18</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>['Magdalena del Mar', 'San Isidro', 'Pueblo Libre', 'Breña', 'Lima', 'San Luis', 'Lince', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Cieneguilla', 'Los Olivos', 'Magdalena del Mar']</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>132.1856831232905</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>10</v>
+      </c>
+      <c r="B245" t="n">
+        <v>19</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>['San Isidro', 'Lince', 'San Luis', 'Breña', 'Lima', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'San Isidro']</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>125.6016462653907</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>10</v>
+      </c>
+      <c r="B246" t="n">
+        <v>20</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>['Punta Hermosa', 'Punta Negra', 'Pachacámac', 'Cieneguilla', 'Los Olivos', 'Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Punta Hermosa']</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>118.8573485272925</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>10</v>
+      </c>
+      <c r="B247" t="n">
+        <v>21</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos', 'Lince', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>132.6266948334126</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>10</v>
+      </c>
+      <c r="B248" t="n">
+        <v>22</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>['Lince', 'San Isidro', 'Magdalena del Mar', 'Pueblo Libre', 'Lima', 'Breña', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Lince']</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>127.4603869431522</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>10</v>
+      </c>
+      <c r="B249" t="n">
+        <v>23</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>['Los Olivos', 'Breña', 'Lima', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Cieneguilla', 'Pachacámac', 'Punta Hermosa', 'Punta Negra', 'Los Olivos']</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>126.0636994045329</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>10</v>
+      </c>
+      <c r="B250" t="n">
+        <v>24</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>['Breña', 'Lima', 'San Luis', 'San Isidro', 'Lince', 'Magdalena del Mar', 'Pueblo Libre', 'Los Olivos', 'Punta Negra', 'Punta Hermosa', 'Pachacámac', 'Cieneguilla', 'Breña']</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>133.8112516062361</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>10</v>
+      </c>
+      <c r="B251" t="n">
+        <v>25</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>['Lima', 'Breña', 'Pueblo Libre', 'Magdalena del Mar', 'San Isidro', 'Lince', 'San Luis', 'Los Olivos', 'Cieneguilla', 'Pachacámac', 'Punta Negra', 'Punta Hermosa', 'Lima']</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>128.4887644265597</v>
       </c>
     </row>
   </sheetData>
